--- a/forecasting/rental_forecasts_23.xlsx
+++ b/forecasting/rental_forecasts_23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maln\Documents\GitHub\housing_stats\forecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmak\Documents\GitHub\housing_stats\forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7878569-26FE-4F54-A6D2-9FE2202F8B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F8A012-65D8-4EBC-9494-07E74431DC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="1725" windowWidth="24375" windowHeight="11835" activeTab="1" xr2:uid="{E768B320-BC22-4076-8E46-0DC1610EB73E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{E768B320-BC22-4076-8E46-0DC1610EB73E}"/>
   </bookViews>
   <sheets>
     <sheet name="vacancy" sheetId="1" r:id="rId1"/>
@@ -80,6 +80,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,9 +112,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -127,6 +131,3025 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>vacancy!$A$13:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>37256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37621</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38717</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39082</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39447</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39813</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40178</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>vacancy!$B$13:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8999999999999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.39999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9538-4DC5-BDB7-9C29D1C32EA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>vacancy!$A$13:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>37256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37621</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38717</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39082</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39447</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39813</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40178</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>vacancy!$C$13:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="21">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8261901940751101E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.4607199718237601E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.36606613525693E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9538-4DC5-BDB7-9C29D1C32EA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>vacancy!$A$13:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>37256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37621</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38717</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39082</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39447</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39813</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40178</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>vacancy!$D$13:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="21">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.22949398510509E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4330457022062299E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.17447397263458E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9538-4DC5-BDB7-9C29D1C32EA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="900490160"/>
+        <c:axId val="900475184"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="900490160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="900475184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="years"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="900475184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="900490160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2bed_rent'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2_bed_scenario1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2bed_rent'!$A$2:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>34334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35430</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36891</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37621</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37986</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38352</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38717</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39082</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39447</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39813</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40178</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>46022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2bed_rent'!$B$2:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>739</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1148</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1099</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1069</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1084</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1224</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1322</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1332</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1258</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1247</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1272</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1305</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1323</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1355</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1013-48BC-8B6E-CEC6B99D6BA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2bed_rent'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2_bed_scenario1_mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2bed_rent'!$A$2:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>34334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35430</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36891</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37621</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37986</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38352</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38717</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39082</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39447</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39813</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40178</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>46022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2bed_rent'!$C$2:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="29">
+                  <c:v>1466</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)">
+                  <c:v>1574.09527248422</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)">
+                  <c:v>1632.61526572408</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)">
+                  <c:v>1685.24229732349</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1013-48BC-8B6E-CEC6B99D6BA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2bed_rent'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2_bed_scenario1_up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2bed_rent'!$A$2:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>34334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35430</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36891</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37621</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37986</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38352</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38717</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39082</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39447</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39813</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40178</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>46022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2bed_rent'!$D$2:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="29">
+                  <c:v>1466</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)">
+                  <c:v>1594.99871470793</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)">
+                  <c:v>1673.18663684641</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)">
+                  <c:v>1739.3232145566601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1013-48BC-8B6E-CEC6B99D6BA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2bed_rent'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2_bed_scenario2_mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2bed_rent'!$A$2:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>34334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35430</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36891</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37621</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37986</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38352</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38717</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39082</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39447</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39813</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40178</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>46022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2bed_rent'!$G$2:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="29">
+                  <c:v>1466</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)">
+                  <c:v>1610.988548381755</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)">
+                  <c:v>1779.9655404871719</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)">
+                  <c:v>1949.0734988026632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1013-48BC-8B6E-CEC6B99D6BA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2bed_rent'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2_bed_scenario2_up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2bed_rent'!$A$2:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>34334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35430</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36891</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37621</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37986</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38352</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38717</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39082</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39447</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39813</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40178</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>46022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2bed_rent'!$H$2:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="29">
+                  <c:v>1466</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)">
+                  <c:v>1638.1710996954023</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)">
+                  <c:v>1840.3742218272321</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)">
+                  <c:v>2049.345578913998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1013-48BC-8B6E-CEC6B99D6BA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1783132208"/>
+        <c:axId val="1783138448"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1783132208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1783138448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="years"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1783138448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1783132208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCAF70C1-D929-49D6-4B37-967D8BDC47AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{087AD287-B4F2-C972-0267-EDFA5BDEF6F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -428,16 +3451,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC2B02F-2038-49C5-A90A-E120733C4EEA}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -451,7 +3474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>33238</v>
       </c>
@@ -459,7 +3482,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>33603</v>
       </c>
@@ -467,7 +3490,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>33969</v>
       </c>
@@ -475,7 +3498,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>34334</v>
       </c>
@@ -483,7 +3506,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>34699</v>
       </c>
@@ -491,7 +3514,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>35064</v>
       </c>
@@ -499,7 +3522,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>35430</v>
       </c>
@@ -507,7 +3530,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>35795</v>
       </c>
@@ -515,7 +3538,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>36160</v>
       </c>
@@ -523,7 +3546,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>36525</v>
       </c>
@@ -531,7 +3554,7 @@
         <v>2.79999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>36891</v>
       </c>
@@ -539,7 +3562,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>37256</v>
       </c>
@@ -547,7 +3570,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>37621</v>
       </c>
@@ -555,7 +3578,7 @@
         <v>2.8999999999999901E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>37986</v>
       </c>
@@ -563,7 +3586,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>38352</v>
       </c>
@@ -571,7 +3594,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>38717</v>
       </c>
@@ -579,7 +3602,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>39082</v>
       </c>
@@ -587,7 +3610,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>39447</v>
       </c>
@@ -595,7 +3618,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>39813</v>
       </c>
@@ -603,7 +3626,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>40178</v>
       </c>
@@ -611,7 +3634,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>40543</v>
       </c>
@@ -619,7 +3642,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>40908</v>
       </c>
@@ -627,7 +3650,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>41274</v>
       </c>
@@ -635,7 +3658,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
@@ -643,7 +3666,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>42004</v>
       </c>
@@ -651,7 +3674,7 @@
         <v>1.39999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>42369</v>
       </c>
@@ -659,7 +3682,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>42735</v>
       </c>
@@ -667,7 +3690,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43100</v>
       </c>
@@ -675,7 +3698,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43465</v>
       </c>
@@ -683,7 +3706,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43830</v>
       </c>
@@ -691,7 +3714,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44196</v>
       </c>
@@ -699,7 +3722,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44561</v>
       </c>
@@ -707,15 +3730,24 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44926</v>
       </c>
       <c r="B34">
         <v>2.7E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D34">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E34">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45291</v>
       </c>
@@ -729,7 +3761,7 @@
         <v>3.4228864030451403E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45657</v>
       </c>
@@ -743,7 +3775,7 @@
         <v>3.4883942414412998E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>46022</v>
       </c>
@@ -759,6 +3791,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -766,16 +3800,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F835BB81-87EA-4DAB-919F-BA0A283AAC5C}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -801,7 +3835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>34334</v>
       </c>
@@ -815,7 +3849,7 @@
         <v>-2.3411371237458099E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>34699</v>
       </c>
@@ -829,7 +3863,7 @@
         <v>1.7123287671232299E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>35064</v>
       </c>
@@ -843,7 +3877,7 @@
         <v>-1.7094017094017001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>35430</v>
       </c>
@@ -857,7 +3891,7 @@
         <v>1.8835616438356E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>35795</v>
       </c>
@@ -871,7 +3905,7 @@
         <v>6.7226890756302504E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>36160</v>
       </c>
@@ -885,7 +3919,7 @@
         <v>0.113385826771653</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>36525</v>
       </c>
@@ -899,7 +3933,7 @@
         <v>4.5261669024045201E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>36891</v>
       </c>
@@ -913,7 +3947,7 @@
         <v>1.35317997293649E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>37256</v>
       </c>
@@ -927,7 +3961,7 @@
         <v>5.8108108108108E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>37621</v>
       </c>
@@ -941,7 +3975,7 @@
         <v>2.68199233716475E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>37986</v>
       </c>
@@ -955,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>38352</v>
       </c>
@@ -969,7 +4003,7 @@
         <v>2.4875621890547701E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>38717</v>
       </c>
@@ -983,7 +4017,7 @@
         <v>2.4813895781636802E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>39082</v>
       </c>
@@ -997,7 +4031,7 @@
         <v>0.18811881188118801</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>39447</v>
       </c>
@@ -1011,7 +4045,7 @@
         <v>0.134374999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>39813</v>
       </c>
@@ -1025,7 +4059,7 @@
         <v>5.4178145087236E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>40178</v>
       </c>
@@ -1039,7 +4073,7 @@
         <v>-4.2682926829268303E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>40543</v>
       </c>
@@ -1053,7 +4087,7 @@
         <v>-2.7297543221110099E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>40908</v>
       </c>
@@ -1067,7 +4101,7 @@
         <v>1.40318054256314E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
@@ -1081,7 +4115,7 @@
         <v>6.0885608856088499E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>41639</v>
       </c>
@@ -1095,7 +4129,7 @@
         <v>6.4347826086956494E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>42004</v>
       </c>
@@ -1109,7 +4143,7 @@
         <v>8.0065359477124107E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>42369</v>
       </c>
@@ -1123,7 +4157,7 @@
         <v>7.5642965204236702E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>42735</v>
       </c>
@@ -1137,7 +4171,7 @@
         <v>-5.5555555555555497E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43100</v>
       </c>
@@ -1151,7 +4185,7 @@
         <v>-8.7440381558028194E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43465</v>
       </c>
@@ -1165,7 +4199,7 @@
         <v>2.00481154771452E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43830</v>
       </c>
@@ -1179,7 +4213,7 @@
         <v>2.5943396226414998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44196</v>
       </c>
@@ -1193,7 +4227,7 @@
         <v>1.3793103448275799E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44561</v>
       </c>
@@ -1207,11 +4241,17 @@
         <v>2.4187452758881199E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44926</v>
       </c>
       <c r="B31">
+        <v>1466</v>
+      </c>
+      <c r="C31">
+        <v>1466</v>
+      </c>
+      <c r="D31">
         <v>1466</v>
       </c>
       <c r="E31">
@@ -1221,28 +4261,38 @@
       <c r="F31">
         <v>1466</v>
       </c>
+      <c r="G31">
+        <v>1466</v>
+      </c>
+      <c r="H31">
+        <v>1466</v>
+      </c>
       <c r="I31">
         <v>8.1918819188191799E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45291</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>1574.09527248422</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>1594.99871470793</v>
       </c>
       <c r="E32">
         <f>D32/B31</f>
         <v>1.0879936662400613</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
         <f>F31*(1+J32)</f>
         <v>1610.988548381755</v>
       </c>
+      <c r="H32" s="2">
+        <f>F31*(1+K32)</f>
+        <v>1638.1710996954023</v>
+      </c>
       <c r="J32">
         <v>9.8900783343625606E-2</v>
       </c>
@@ -1250,24 +4300,28 @@
         <v>0.11744276923288</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45657</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>1632.61526572408</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>1673.18663684641</v>
       </c>
       <c r="E33">
         <f>D33/D32</f>
         <v>1.0490206803412989</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <f>G32*(1+J33)</f>
         <v>1779.9655404871719</v>
       </c>
+      <c r="H33" s="2">
+        <f>H32*(1+K33)</f>
+        <v>1840.3742218272321</v>
+      </c>
       <c r="J33">
         <v>0.104890250321863</v>
       </c>
@@ -1275,24 +4329,28 @@
         <v>0.123432236211118</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>46022</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>1685.24229732349</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>1739.3232145566601</v>
       </c>
       <c r="E34">
         <f>D34/D33</f>
         <v>1.039527316471343</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <f>G33*(1+J34)</f>
         <v>1949.0734988026632</v>
       </c>
+      <c r="H34" s="2">
+        <f>H33*(1+K34)</f>
+        <v>2049.345578913998</v>
+      </c>
       <c r="J34">
         <v>9.5006310217223E-2</v>
       </c>
@@ -1302,6 +4360,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1311,8 +4371,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>